--- a/assets/nft.xlsx
+++ b/assets/nft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ec80f9037d6c3d9/Documents/mobile-dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ec80f9037d6c3d9/Documents/mobile-dev/stock_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_0311C52EA721D032A4FF31D2F87AE38028869FF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E1228BF-06D0-460D-929B-00F7AC9B3831}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_0311C52EA721D032A4FF31D2F87AE38028869FF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0861AFD9-63E1-4391-AE4A-E81715774C55}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,14 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,13 +416,16 @@
   <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -440,7 +445,6 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
